--- a/level-3/hackerearth/advanced-data-structures-2/hackerearth-advanced-data-structures-2.xlsx
+++ b/level-3/hackerearth/advanced-data-structures-2/hackerearth-advanced-data-structures-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE25340-89C0-49F7-9F09-A918EACE8701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633AD9C6-CE7C-4659-8DA1-28E405DE027D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,26 +433,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
@@ -467,26 +447,18 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <u/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -568,61 +540,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -975,108 +934,102 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="2" customWidth="1"/>
-    <col min="3" max="7" width="15.109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="11" customWidth="1"/>
+    <col min="3" max="7" width="15.109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="6" customWidth="1"/>
+    <col min="9" max="10" width="67.33203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" s="13" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="5" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C173)</f>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1" t="e">
+        <f>AVERAGE(C4:C250)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D3" s="5" t="e">
-        <f t="shared" si="0"/>
+      <c r="D3" s="1" t="e">
+        <f>AVERAGE(D4:D250)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E3" s="5" t="e">
-        <f t="shared" si="0"/>
+      <c r="E3" s="1" t="e">
+        <f>AVERAGE(E4:E250)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F3" s="5" t="e">
-        <f t="shared" si="0"/>
+      <c r="F3" s="1" t="e">
+        <f>AVERAGE(F4:F250)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G3" s="5" t="e">
-        <f t="shared" si="0"/>
+      <c r="G3" s="1" t="e">
+        <f>AVERAGE(G4:G250)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H3" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <f>COUNTA(I4:I758)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <f>COUNTA(J4:J758)</f>
+      <c r="H3" s="1">
+        <f>AVERAGE(H4:H250)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <f>COUNTA(I4:I250)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <f>COUNTA(J4:J250)</f>
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6">
-        <f t="shared" ref="H4:H36" si="1">SUM(C4:G4)</f>
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:H36" si="0">SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="J4" s="9" t="s">
@@ -1084,19 +1037,14 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6">
-        <f t="shared" si="1"/>
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -1104,19 +1052,14 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6">
-        <f t="shared" si="1"/>
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" s="9" t="s">
@@ -1124,19 +1067,14 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6">
-        <f t="shared" si="1"/>
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -1144,19 +1082,14 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6">
-        <f t="shared" si="1"/>
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8" s="9" t="s">
@@ -1164,19 +1097,14 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6">
-        <f t="shared" si="1"/>
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9" s="9" t="s">
@@ -1184,19 +1112,14 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6">
-        <f t="shared" si="1"/>
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="9" t="s">
@@ -1204,19 +1127,14 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6">
-        <f t="shared" si="1"/>
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11" s="9" t="s">
@@ -1224,19 +1142,14 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6">
-        <f t="shared" si="1"/>
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J12" s="9" t="s">
@@ -1244,19 +1157,14 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6">
-        <f t="shared" si="1"/>
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J13" s="9" t="s">
@@ -1264,19 +1172,14 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6">
-        <f t="shared" si="1"/>
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14" s="9" t="s">
@@ -1284,19 +1187,14 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6">
-        <f t="shared" si="1"/>
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15" s="9" t="s">
@@ -1304,19 +1202,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6">
-        <f t="shared" si="1"/>
+      <c r="A16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16" s="9" t="s">
@@ -1324,19 +1217,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6">
-        <f t="shared" si="1"/>
+      <c r="A17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J17" s="9" t="s">
@@ -1344,19 +1232,14 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6">
-        <f t="shared" si="1"/>
+      <c r="A18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J18" s="9" t="s">
@@ -1364,19 +1247,14 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6">
-        <f t="shared" si="1"/>
+      <c r="A19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J19" s="9" t="s">
@@ -1384,19 +1262,14 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6">
-        <f t="shared" si="1"/>
+      <c r="A20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J20" s="9" t="s">
@@ -1404,19 +1277,14 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="6">
-        <f t="shared" si="1"/>
+      <c r="A21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J21" s="9" t="s">
@@ -1424,19 +1292,14 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="6">
-        <f t="shared" si="1"/>
+      <c r="A22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J22" s="9" t="s">
@@ -1444,19 +1307,14 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6">
-        <f t="shared" si="1"/>
+      <c r="A23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J23" s="9" t="s">
@@ -1464,19 +1322,14 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="6">
-        <f t="shared" si="1"/>
+      <c r="A24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J24" s="9" t="s">
@@ -1484,19 +1337,14 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="6">
-        <f t="shared" si="1"/>
+      <c r="A25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J25" s="9" t="s">
@@ -1504,19 +1352,14 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6">
-        <f t="shared" si="1"/>
+      <c r="A26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J26" s="9" t="s">
@@ -1524,19 +1367,14 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="6">
-        <f t="shared" si="1"/>
+      <c r="A27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J27" s="9" t="s">
@@ -1544,19 +1382,14 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="6">
-        <f t="shared" si="1"/>
+      <c r="A28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J28" s="9" t="s">
@@ -1564,19 +1397,14 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="6">
-        <f t="shared" si="1"/>
+      <c r="A29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J29" s="9" t="s">
@@ -1584,19 +1412,14 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="6">
-        <f t="shared" si="1"/>
+      <c r="A30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J30" s="9" t="s">
@@ -1604,19 +1427,14 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="6">
-        <f t="shared" si="1"/>
+      <c r="A31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J31" s="9" t="s">
@@ -1624,19 +1442,14 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="6">
-        <f t="shared" si="1"/>
+      <c r="A32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J32" s="9" t="s">
@@ -1644,19 +1457,14 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="6">
-        <f t="shared" si="1"/>
+      <c r="A33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J33" s="9" t="s">
@@ -1664,19 +1472,14 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="6">
-        <f t="shared" si="1"/>
+      <c r="A34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J34" s="9" t="s">
@@ -1684,19 +1487,14 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="6">
-        <f t="shared" si="1"/>
+      <c r="A35" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J35" s="9" t="s">
@@ -1704,19 +1502,14 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="6">
-        <f t="shared" si="1"/>
+      <c r="A36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J36" s="9" t="s">
@@ -1724,19 +1517,14 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="6">
-        <f t="shared" ref="H37:H58" si="2">SUM(C37:G37)</f>
+      <c r="H37" s="7">
+        <f t="shared" ref="H37:H58" si="1">SUM(C37:G37)</f>
         <v>0</v>
       </c>
       <c r="J37" s="9" t="s">
@@ -1744,19 +1532,14 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="6">
-        <f t="shared" si="2"/>
+      <c r="H38" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J38" s="9" t="s">
@@ -1764,19 +1547,14 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="6">
-        <f t="shared" si="2"/>
+      <c r="A39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J39" s="9" t="s">
@@ -1784,19 +1562,14 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="6">
-        <f t="shared" si="2"/>
+      <c r="A40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J40" s="9" t="s">
@@ -1804,19 +1577,14 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="6">
-        <f t="shared" si="2"/>
+      <c r="A41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J41" s="9" t="s">
@@ -1824,19 +1592,14 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="6">
-        <f t="shared" si="2"/>
+      <c r="A42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J42" s="9" t="s">
@@ -1844,19 +1607,14 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="6">
-        <f t="shared" si="2"/>
+      <c r="A43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J43" s="9" t="s">
@@ -1864,19 +1622,14 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="6">
-        <f t="shared" si="2"/>
+      <c r="A44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J44" s="9" t="s">
@@ -1884,19 +1637,14 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="6">
-        <f t="shared" si="2"/>
+      <c r="A45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J45" s="9" t="s">
@@ -1904,19 +1652,14 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="6">
-        <f t="shared" si="2"/>
+      <c r="A46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J46" s="9" t="s">
@@ -1924,19 +1667,14 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="6">
-        <f t="shared" si="2"/>
+      <c r="A47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J47" s="9" t="s">
@@ -1944,19 +1682,14 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="6">
-        <f t="shared" si="2"/>
+      <c r="A48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J48" s="9" t="s">
@@ -1964,19 +1697,14 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="6">
-        <f t="shared" si="2"/>
+      <c r="A49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J49" s="9" t="s">
@@ -1984,19 +1712,14 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="6">
-        <f t="shared" si="2"/>
+      <c r="A50" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J50" s="9" t="s">
@@ -2004,19 +1727,14 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="6">
-        <f t="shared" si="2"/>
+      <c r="A51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J51" s="9" t="s">
@@ -2024,19 +1742,14 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="6">
-        <f t="shared" si="2"/>
+      <c r="A52" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J52" s="9" t="s">
@@ -2044,19 +1757,14 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="6">
-        <f t="shared" si="2"/>
+      <c r="A53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J53" s="9" t="s">
@@ -2064,19 +1772,14 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="6">
-        <f t="shared" si="2"/>
+      <c r="A54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J54" s="9" t="s">
@@ -2084,14 +1787,14 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" s="6">
-        <f t="shared" si="2"/>
+      <c r="A55" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J55" s="9" t="s">
@@ -2099,14 +1802,14 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H56" s="6">
-        <f t="shared" si="2"/>
+      <c r="A56" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J56" s="9" t="s">
@@ -2114,14 +1817,14 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H57" s="6">
-        <f t="shared" si="2"/>
+      <c r="A57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J57" s="9" t="s">
@@ -2129,14 +1832,14 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H58" s="6">
-        <f t="shared" si="2"/>
+      <c r="A58" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J58" s="9" t="s">
@@ -2144,14 +1847,14 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" s="6">
-        <f t="shared" ref="H59:H73" si="3">SUM(C59:G59)</f>
+      <c r="A59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" s="7">
+        <f t="shared" ref="H59:H73" si="2">SUM(C59:G59)</f>
         <v>0</v>
       </c>
       <c r="J59" s="9" t="s">
@@ -2159,14 +1862,14 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H60" s="6">
-        <f t="shared" si="3"/>
+      <c r="A60" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J60" s="9" t="s">
@@ -2174,14 +1877,14 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" s="6">
-        <f t="shared" si="3"/>
+      <c r="A61" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J61" s="9" t="s">
@@ -2189,14 +1892,14 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H62" s="6">
-        <f t="shared" si="3"/>
+      <c r="A62" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J62" s="9" t="s">
@@ -2204,14 +1907,14 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H63" s="6">
-        <f t="shared" si="3"/>
+      <c r="A63" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J63" s="9" t="s">
@@ -2219,14 +1922,14 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="6">
-        <f t="shared" si="3"/>
+      <c r="A64" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J64" s="9" t="s">
@@ -2234,14 +1937,14 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H65" s="6">
-        <f t="shared" si="3"/>
+      <c r="A65" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J65" s="9" t="s">
@@ -2249,14 +1952,14 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H66" s="6">
-        <f t="shared" si="3"/>
+      <c r="A66" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J66" s="9" t="s">
@@ -2264,14 +1967,14 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H67" s="6">
-        <f t="shared" si="3"/>
+      <c r="A67" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J67" s="9" t="s">
@@ -2279,14 +1982,14 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H68" s="6">
-        <f t="shared" si="3"/>
+      <c r="A68" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J68" s="9" t="s">
@@ -2294,14 +1997,14 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H69" s="6">
-        <f t="shared" si="3"/>
+      <c r="A69" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J69" s="9" t="s">
@@ -2309,14 +2012,14 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H70" s="6">
-        <f t="shared" si="3"/>
+      <c r="A70" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J70" s="9" t="s">
@@ -2324,14 +2027,14 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H71" s="6">
-        <f t="shared" si="3"/>
+      <c r="A71" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H71" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J71" s="9" t="s">
@@ -2339,14 +2042,14 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H72" s="6">
-        <f t="shared" si="3"/>
+      <c r="A72" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J72" s="9" t="s">
@@ -2354,14 +2057,14 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H73" s="6">
-        <f t="shared" si="3"/>
+      <c r="A73" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J73" s="9" t="s">
@@ -2369,14 +2072,14 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="6">
-        <f t="shared" ref="H74:H113" si="4">SUM(C74:G74)</f>
+      <c r="A74" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="7">
+        <f t="shared" ref="H74:H113" si="3">SUM(C74:G74)</f>
         <v>0</v>
       </c>
       <c r="J74" s="9" t="s">
@@ -2384,14 +2087,14 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="6">
-        <f t="shared" si="4"/>
+      <c r="A75" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J75" s="9" t="s">
@@ -2399,14 +2102,14 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="6">
-        <f t="shared" si="4"/>
+      <c r="A76" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J76" s="9" t="s">
@@ -2414,14 +2117,14 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="6">
-        <f t="shared" si="4"/>
+      <c r="A77" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J77" s="9" t="s">
@@ -2429,14 +2132,14 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="6">
-        <f t="shared" si="4"/>
+      <c r="A78" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J78" s="9" t="s">
@@ -2444,14 +2147,14 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="6">
-        <f t="shared" si="4"/>
+      <c r="A79" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J79" s="9" t="s">
@@ -2459,14 +2162,14 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" s="6">
-        <f t="shared" si="4"/>
+      <c r="A80" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J80" s="9" t="s">
@@ -2474,14 +2177,14 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="6">
-        <f t="shared" si="4"/>
+      <c r="A81" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J81" s="9" t="s">
@@ -2489,14 +2192,14 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="6">
-        <f t="shared" si="4"/>
+      <c r="A82" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J82" s="9" t="s">
@@ -2504,14 +2207,14 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="6">
-        <f t="shared" si="4"/>
+      <c r="A83" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J83" s="9" t="s">
@@ -2519,14 +2222,14 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" s="6">
-        <f t="shared" si="4"/>
+      <c r="A84" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J84" s="9" t="s">
@@ -2534,14 +2237,14 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" s="6">
-        <f t="shared" si="4"/>
+      <c r="A85" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J85" s="9" t="s">
@@ -2549,14 +2252,14 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" s="6">
-        <f t="shared" si="4"/>
+      <c r="A86" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J86" s="9" t="s">
@@ -2564,14 +2267,14 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" s="6">
-        <f t="shared" si="4"/>
+      <c r="A87" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J87" s="9" t="s">
@@ -2579,14 +2282,14 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" s="6">
-        <f t="shared" si="4"/>
+      <c r="A88" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J88" s="9" t="s">
@@ -2594,14 +2297,14 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" s="6">
-        <f t="shared" si="4"/>
+      <c r="A89" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J89" s="9" t="s">
@@ -2609,14 +2312,14 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" s="6">
-        <f t="shared" si="4"/>
+      <c r="A90" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J90" s="9" t="s">
@@ -2624,14 +2327,14 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="6">
-        <f t="shared" si="4"/>
+      <c r="A91" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J91" s="9" t="s">
@@ -2639,14 +2342,14 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" s="6">
-        <f t="shared" si="4"/>
+      <c r="A92" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J92" s="9" t="s">
@@ -2654,14 +2357,14 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" s="6">
-        <f t="shared" si="4"/>
+      <c r="A93" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J93" s="9" t="s">
@@ -2669,14 +2372,14 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" s="6">
-        <f t="shared" si="4"/>
+      <c r="A94" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J94" s="9" t="s">
@@ -2684,14 +2387,14 @@
       </c>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="6">
-        <f t="shared" si="4"/>
+      <c r="A95" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J95" s="9" t="s">
@@ -2699,14 +2402,14 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="6">
-        <f t="shared" si="4"/>
+      <c r="A96" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J96" s="9" t="s">
@@ -2714,14 +2417,14 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H97" s="6">
-        <f t="shared" si="4"/>
+      <c r="B97" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H97" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J97" s="9" t="s">
@@ -2729,14 +2432,14 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H98" s="6">
-        <f t="shared" si="4"/>
+      <c r="B98" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H98" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J98" s="9" t="s">
@@ -2744,14 +2447,14 @@
       </c>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H99" s="6">
-        <f t="shared" si="4"/>
+      <c r="B99" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J99" s="9" t="s">
@@ -2759,14 +2462,14 @@
       </c>
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H100" s="6">
-        <f t="shared" si="4"/>
+      <c r="B100" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J100" s="9" t="s">
@@ -2774,14 +2477,14 @@
       </c>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H101" s="6">
-        <f t="shared" si="4"/>
+      <c r="H101" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J101" s="9" t="s">
@@ -2789,14 +2492,14 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H102" s="6">
-        <f t="shared" si="4"/>
+      <c r="B102" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H102" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J102" s="9" t="s">
@@ -2804,14 +2507,14 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H103" s="6">
-        <f t="shared" si="4"/>
+      <c r="B103" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H103" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J103" s="9" t="s">
@@ -2819,14 +2522,14 @@
       </c>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" s="6">
-        <f t="shared" si="4"/>
+      <c r="B104" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J104" s="9" t="s">
@@ -2834,14 +2537,14 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H105" s="6">
-        <f t="shared" si="4"/>
+      <c r="B105" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J105" s="9" t="s">
@@ -2849,14 +2552,14 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H106" s="6">
-        <f t="shared" si="4"/>
+      <c r="B106" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J106" s="9" t="s">
@@ -2864,14 +2567,14 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H107" s="6">
-        <f t="shared" si="4"/>
+      <c r="B107" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J107" s="9" t="s">
@@ -2879,14 +2582,14 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H108" s="6">
-        <f t="shared" si="4"/>
+      <c r="B108" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J108" s="9" t="s">
@@ -2894,14 +2597,14 @@
       </c>
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" s="6">
-        <f t="shared" si="4"/>
+      <c r="B109" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J109" s="9" t="s">
@@ -2909,14 +2612,14 @@
       </c>
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H110" s="6">
-        <f t="shared" si="4"/>
+      <c r="B110" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J110" s="9" t="s">
@@ -2924,14 +2627,14 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" s="6">
-        <f t="shared" si="4"/>
+      <c r="B111" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J111" s="9" t="s">
@@ -2939,14 +2642,14 @@
       </c>
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" s="6">
-        <f t="shared" si="4"/>
+      <c r="B112" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J112" s="9" t="s">
@@ -2954,14 +2657,14 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" s="6">
-        <f t="shared" si="4"/>
+      <c r="B113" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J113" s="9" t="s">
